--- a/9_IBM Data Analyst Capstone Project/Step1_Data_Collection/1CollectionByAPIs/job_postings_Tech.xlsx
+++ b/9_IBM Data Analyst Capstone Project/Step1_Data_Collection/1CollectionByAPIs/job_postings_Tech.xlsx
@@ -1,33 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheldonnnn/Documents/一些学习笔记/IBMDA/9_IBM Data Analyst Capstone Project/Step1_Data_Collection/1CollectionByAPIs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A16B32-B680-DB4E-A7D4-D48D84C36177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet!$B$2:$B$13</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Number of Job Postings</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Scala</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>MySQL Server</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +106,1084 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Popular-languages</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Job Postings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Oracle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SQL Server</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MongoDB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MySQL Server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCEA-8A43-BDD5-F65BF760929B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="62253040"/>
+        <c:axId val="63059056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62253040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63059056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63059056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62253040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220CEAFF-1E46-BAB9-E54A-FAF6A233E1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,156 +1470,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="19" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Number of Job Postings</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>13498</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C#</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>333</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C++</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>305</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2609</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>JavaScript</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>355</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>174</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1173</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Scala</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>33</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SQL Server</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MySQL Server</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MongoDB</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+    <sortCondition descending="1" ref="B2:B13"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>